--- a/List of GSM-Converted Kinetic Models.xlsx
+++ b/List of GSM-Converted Kinetic Models.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\MyProjects\kinmodre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8E1CE6-1B19-4D9F-A0FA-34685B7394D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C58B999-7DEB-4C58-8420-BC79EA2AA638}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B4C7D942-9A2E-4284-ADB5-B7C4CF7DD1B1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Models" sheetId="1" r:id="rId1"/>
+    <sheet name="References" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="202">
   <si>
     <t>e_coli_core</t>
   </si>
@@ -636,13 +637,19 @@
   </si>
   <si>
     <t>BiGG</t>
+  </si>
+  <si>
+    <t>Norsigian et al. 2020. BiGG Models 2020: multi-strain genome-scale models and expansion across the phylogenetic tree. Nucleic Acids Research 48(D1):D402–D406. https://doi.org/10.1093/nar/gkz1054</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +683,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -718,16 +733,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -742,6 +754,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1082,2195 +1109,2195 @@
   <dimension ref="A1:F109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="63.6328125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="14" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.81640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="63.6328125" style="7" customWidth="1"/>
+    <col min="3" max="5" width="14" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" style="7" customWidth="1"/>
     <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>72</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>95</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>137</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>342</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>469</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>346</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1668</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>2382</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>1261</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1668</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>2388</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>1261</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>628</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>690</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>692</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="6">
         <v>1109</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>1285</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="6">
         <v>987</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>903</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>1067</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="6">
         <v>448</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>907</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>1074</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>455</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>909</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>1083</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="6">
         <v>480</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>909</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>1079</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>459</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>909</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>1078</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="6">
         <v>461</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>1942</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>2735</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>1313</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>738</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>1008</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="6">
         <v>636</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>1943</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>2741</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="6">
         <v>1337</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>1949</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>2741</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>1329</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>1936</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>2726</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>1307</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>4456</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>6663</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>1766</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>2751</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>3942</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <v>1184</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>888</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>1015</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>709</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>885</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>1229</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>900</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="6">
         <v>1919</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>2703</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="6">
         <v>1287</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>1926</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>2714</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E23" s="6">
         <v>1314</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="6">
         <v>1934</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>2726</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>1344</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="6">
         <v>1946</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>2756</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>1349</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="6">
         <v>1918</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>2740</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="6">
         <v>1356</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>1927</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>2764</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="6">
         <v>1364</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="6">
         <v>1951</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>2779</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="6">
         <v>1368</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="6">
         <v>1918</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>2758</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="6">
         <v>1372</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="6">
         <v>1953</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>2756</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="6">
         <v>1330</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="6">
         <v>1942</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>2731</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="6">
         <v>1320</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="6">
         <v>1951</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>2748</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="6">
         <v>1329</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="6">
         <v>1952</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>2748</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="6">
         <v>1354</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="6">
         <v>1943</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>2741</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="6">
         <v>1333</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="6">
         <v>1947</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>2742</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="6">
         <v>1327</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="6">
         <v>1949</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>2750</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="6">
         <v>1363</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="6">
         <v>1950</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="6">
         <v>2755</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="6">
         <v>1439</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="6">
         <v>1972</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="6">
         <v>2763</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="6">
         <v>1341</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="6">
         <v>1929</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="6">
         <v>2706</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="6">
         <v>1279</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="6">
         <v>1918</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="6">
         <v>2694</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="6">
         <v>1262</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="6">
         <v>1963</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="6">
         <v>2753</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="6">
         <v>1321</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="6">
         <v>1968</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="6">
         <v>2765</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="6">
         <v>1343</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="6">
         <v>1953</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="6">
         <v>2721</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="6">
         <v>1321</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="6">
         <v>1927</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="6">
         <v>2718</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="6">
         <v>1301</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>1958</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D45" s="6">
         <v>2758</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E45" s="6">
         <v>1327</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="6">
         <v>1959</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="6">
         <v>2760</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="6">
         <v>1328</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="6">
         <v>1965</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D47" s="6">
         <v>2780</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E47" s="6">
         <v>1355</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="6">
         <v>1941</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="6">
         <v>2729</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="6">
         <v>1304</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="6">
         <v>1969</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="6">
         <v>2768</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="6">
         <v>1368</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="6">
         <v>1941</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="6">
         <v>2739</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="6">
         <v>1309</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="6">
         <v>1923</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="6">
         <v>2720</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="6">
         <v>1301</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="6">
         <v>1942</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="6">
         <v>2729</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="6">
         <v>1305</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C53" s="6">
         <v>1957</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D53" s="6">
         <v>2768</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="6">
         <v>1348</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="6">
         <v>1951</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="6">
         <v>2742</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="6">
         <v>1327</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="6">
         <v>1947</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="6">
         <v>2746</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E55" s="6">
         <v>1347</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="6">
         <v>1920</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="6">
         <v>2712</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="6">
         <v>1299</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="6">
         <v>1935</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="6">
         <v>2740</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="6">
         <v>1332</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="6">
         <v>1973</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="6">
         <v>2782</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="6">
         <v>1372</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C59" s="6">
         <v>998</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="6">
         <v>1226</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="6">
         <v>1008</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="6">
         <v>1972</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="6">
         <v>2778</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="6">
         <v>1354</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="6">
         <v>1962</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="6">
         <v>2756</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E61" s="6">
         <v>1333</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="6">
         <v>1919</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="6">
         <v>2704</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="6">
         <v>1283</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="6">
         <v>698</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="6">
         <v>785</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="6">
         <v>637</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="6">
         <v>606</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="6">
         <v>519</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="6">
         <v>312</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="7">
+      <c r="C65" s="6">
         <v>606</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D65" s="6">
         <v>519</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="6">
         <v>312</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="6">
         <v>606</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="6">
         <v>519</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="6">
         <v>312</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="6">
         <v>606</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="6">
         <v>520</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E67" s="6">
         <v>312</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="6">
         <v>485</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="6">
         <v>554</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="6">
         <v>339</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="6">
         <v>768</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="6">
         <v>849</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="6">
         <v>785</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="6">
         <v>2153</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="6">
         <v>2927</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="6">
         <v>1462</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C71" s="7">
+      <c r="C71" s="6">
         <v>795</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D71" s="6">
         <v>863</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="6">
         <v>622</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C72" s="7">
+      <c r="C72" s="6">
         <v>907</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="6">
         <v>1054</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="6">
         <v>746</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="6">
         <v>1805</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="6">
         <v>2583</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="6">
         <v>1367</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="6">
         <v>761</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="6">
         <v>1075</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="6">
         <v>904</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C75" s="7">
+      <c r="C75" s="6">
         <v>2172</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="6">
         <v>4456</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="6">
         <v>1027</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="6">
         <v>1938</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="6">
         <v>2726</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="6">
         <v>1302</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="6">
         <v>570</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="6">
         <v>652</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="6">
         <v>482</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="6">
         <v>1877</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="6">
         <v>2712</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="6">
         <v>1516</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A79" s="5" t="s">
+      <c r="A79" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="6">
         <v>2775</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="6">
         <v>3726</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="6">
         <v>1375</v>
       </c>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="6">
         <v>1226</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="6">
         <v>1577</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="6">
         <v>905</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <v>1059</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="6">
         <v>1266</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="6">
         <v>750</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>650</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="6">
         <v>754</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="6">
         <v>516</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <v>825</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="6">
         <v>1025</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E83" s="6">
         <v>661</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <v>1943</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="6">
         <v>2735</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="6">
         <v>1311</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="6">
         <v>1552</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="6">
         <v>1961</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="6">
         <v>815</v>
       </c>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="6">
         <v>1706</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="6">
         <v>2191</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="6">
         <v>1086</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="6">
         <v>1914</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="6">
         <v>2619</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="6">
         <v>1188</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="6">
         <v>655</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="6">
         <v>743</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="6">
         <v>619</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="6">
         <v>1910</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="6">
         <v>2591</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="6">
         <v>1147</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <v>1908</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="6">
         <v>2591</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="6">
         <v>1134</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="6">
         <v>1888</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="6">
         <v>2539</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="6">
         <v>1059</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="6">
         <v>1917</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="6">
         <v>2630</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="6">
         <v>1195</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="6">
         <v>1917</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="6">
         <v>2621</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="6">
         <v>1184</v>
       </c>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C94" s="7">
+      <c r="C94" s="6">
         <v>1918</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="6">
         <v>2638</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="6">
         <v>1169</v>
       </c>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="6">
         <v>1936</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="6">
         <v>2693</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="6">
         <v>1240</v>
       </c>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>928</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="6">
         <v>1044</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="6">
         <v>816</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <v>1942</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="6">
         <v>2735</v>
       </c>
-      <c r="E97" s="7">
+      <c r="E97" s="6">
         <v>1319</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <v>1969</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="6">
         <v>2777</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="6">
         <v>1353</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <v>1940</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="6">
         <v>2725</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="6">
         <v>1310</v>
       </c>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <v>1973</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="6">
         <v>2782</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="6">
         <v>1372</v>
       </c>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="6">
         <v>1953</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" s="6">
         <v>2759</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="6">
         <v>1358</v>
       </c>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="6">
         <v>1658</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="6">
         <v>2262</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="6">
         <v>1229</v>
       </c>
-      <c r="F102" s="8" t="s">
+      <c r="F102" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="6">
         <v>990</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="6">
         <v>1250</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="6">
         <v>844</v>
       </c>
-      <c r="F103" s="8" t="s">
+      <c r="F103" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="6">
         <v>2436</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="6">
         <v>3357</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="6">
         <v>1707</v>
       </c>
-      <c r="F104" s="8" t="s">
+      <c r="F104" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C105" s="7">
+      <c r="C105" s="6">
         <v>1335</v>
       </c>
-      <c r="D105" s="7">
+      <c r="D105" s="6">
         <v>1455</v>
       </c>
-      <c r="E105" s="7">
+      <c r="E105" s="6">
         <v>866</v>
       </c>
-      <c r="F105" s="8" t="s">
+      <c r="F105" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C106" s="7">
+      <c r="C106" s="6">
         <v>1923</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="6">
         <v>2721</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="6">
         <v>1308</v>
       </c>
-      <c r="F106" s="8" t="s">
+      <c r="F106" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="7">
+      <c r="C107" s="6">
         <v>2766</v>
       </c>
-      <c r="D107" s="7">
+      <c r="D107" s="6">
         <v>3741</v>
       </c>
-      <c r="E107" s="7">
+      <c r="E107" s="6">
         <v>1905</v>
       </c>
-      <c r="F107" s="8" t="s">
+      <c r="F107" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C108" s="7">
+      <c r="C108" s="6">
         <v>5835</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" s="6">
         <v>10600</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="6">
         <v>2248</v>
       </c>
-      <c r="F108" s="8" t="s">
+      <c r="F108" s="7" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C109" s="7">
+      <c r="C109" s="6">
         <v>1802</v>
       </c>
-      <c r="D109" s="7">
+      <c r="D109" s="6">
         <v>2545</v>
       </c>
-      <c r="E109" s="7">
+      <c r="E109" s="6">
         <v>1271</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="7" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3711,4 +3738,40 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31560247-B928-4747-9107-0C9885D1EF4D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="120.54296875" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>